--- a/Team-Data/2007-08/2-28-2007-08.xlsx
+++ b/Team-Data/2007-08/2-28-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -774,7 +841,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -798,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.655</v>
+        <v>0.667</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.462</v>
@@ -1603,28 +1670,28 @@
         <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U7" t="n">
         <v>20.1</v>
@@ -1642,25 +1709,25 @@
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA7" t="n">
         <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>7</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1684,13 +1751,13 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,16 +1769,16 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
         <v>14</v>
@@ -1729,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2081,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -2236,10 +2303,10 @@
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -2570,10 +2637,10 @@
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2585,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>24</v>
@@ -2767,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
@@ -2821,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2883,22 +2950,22 @@
         <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P14" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
         <v>10.6</v>
       </c>
       <c r="S14" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2910,25 +2977,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>9</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>5</v>
@@ -2988,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3131,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
@@ -3158,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>0.179</v>
+        <v>0.182</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
         <v>35.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
         <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
@@ -3265,10 +3332,10 @@
         <v>38.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>7.4</v>
@@ -3277,7 +3344,7 @@
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
         <v>20.5</v>
@@ -3286,13 +3353,13 @@
         <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.3</v>
+        <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,13 +3374,13 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -3352,22 +3419,22 @@
         <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="n">
-        <v>0.379</v>
+        <v>0.386</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
         <v>80.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
         <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
         <v>14.7</v>
@@ -3465,16 +3532,16 @@
         <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
@@ -3486,10 +3553,10 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3504,7 +3571,7 @@
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3513,7 +3580,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR17" t="n">
         <v>11</v>
@@ -3543,10 +3610,10 @@
         <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.448</v>
+        <v>0.439</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J19" t="n">
-        <v>78.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.9</v>
       </c>
       <c r="M19" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
         <v>20.2</v>
@@ -3799,22 +3866,22 @@
         <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T19" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U19" t="n">
         <v>23.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
         <v>6.4</v>
@@ -3832,25 +3899,25 @@
         <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.6</v>
+        <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,7 +3926,7 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>19</v>
@@ -3874,7 +3941,7 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3886,13 +3953,13 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3913,7 +3980,7 @@
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4032,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4226,7 +4293,7 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>15</v>
@@ -4271,10 +4338,10 @@
         <v>16</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4502,7 @@
         <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="BA24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5148,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5234,7 +5301,7 @@
         <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
@@ -5243,7 +5310,7 @@
         <v>7.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N27" t="n">
         <v>0.378</v>
@@ -5261,16 +5328,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5288,16 +5355,16 @@
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5342,7 +5409,7 @@
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5521,7 +5588,7 @@
         <v>7</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6052,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-28-2007-08</t>
+          <t>2008-02-28</t>
         </is>
       </c>
     </row>
